--- a/ResponseStatus.xlsx
+++ b/ResponseStatus.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siyadms/Documents/workspace/AMIA/meetingOrganser/responseCollater/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="15540" windowWidth="24740" xWindow="860" yWindow="460"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="24700" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -49,108 +59,47 @@
     <t>no of kids</t>
   </si>
   <si>
-    <t>Siyad1</t>
-  </si>
-  <si>
-    <t>Sajid2</t>
-  </si>
-  <si>
-    <t>siyadms1@gmail.com1</t>
-  </si>
-  <si>
-    <t>sdfa</t>
-  </si>
-  <si>
-    <t>fsd</t>
-  </si>
-  <si>
-    <t>fg</t>
-  </si>
-  <si>
-    <t>Naseeha</t>
-  </si>
-  <si>
     <t>Siyad</t>
   </si>
   <si>
-    <t>naseehas1988@gmail.com</t>
-  </si>
-  <si>
-    <t>Declined</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>fsd@dsf.com</t>
-  </si>
-  <si>
     <t>Sajid</t>
   </si>
   <si>
     <t>siyadms@gmail.com</t>
-  </si>
-  <si>
-    <t>Accepted</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>xzv</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
-  <si>
-    <t>dfs</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>sf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="14"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -187,20 +136,26 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -466,33 +421,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="3.1640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="11.6640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="11.33203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.83203125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="22.83203125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="10.1640625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="18.33203125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="16.1640625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="10.33203125"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="13.5"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" width="10.5"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -527,8 +478,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -543,193 +494,114 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>470209076</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n"/>
-      <c r="K2" s="1" t="n"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="n"/>
-      <c r="I3" s="1" t="n"/>
-      <c r="J3" s="1" t="n"/>
-      <c r="K3" s="1" t="n"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>452453</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="n"/>
-      <c r="H5" s="1" t="n"/>
-      <c r="I5" s="1" t="n"/>
-      <c r="J5" s="1" t="n"/>
-      <c r="K5" s="1" t="n"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>470209076</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n"/>
-      <c r="I7" s="1" t="n"/>
-      <c r="J7" s="1" t="n"/>
-      <c r="K7" s="1" t="n"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="n"/>
-      <c r="G8" s="1" t="n"/>
-      <c r="H8" s="1" t="n"/>
-      <c r="I8" s="1" t="n"/>
-      <c r="J8" s="1" t="n"/>
-      <c r="K8" s="1" t="n"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="n"/>
-      <c r="G9" s="1" t="n"/>
-      <c r="H9" s="1" t="n"/>
-      <c r="I9" s="1" t="n"/>
-      <c r="J9" s="1" t="n"/>
-      <c r="K9" s="1" t="n"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1" display="siyadms1@gmail.com1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>